--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.401</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.351</v>
+        <v>26.54</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.343</v>
+        <v>-0.263</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.159</v>
+        <v>33.497</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.578</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.693</v>
+        <v>26.158</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.625515398255892</v>
+        <v>25.43001205952029</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.54752538049603</v>
+        <v>25.43001209168074</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.29208247880993</v>
+        <v>25.43001210220195</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.023545586160306</v>
+        <v>25.43001206051579</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.62857429989057</v>
+        <v>25.43001209693461</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.13513745407277</v>
+        <v>25.43001210884893</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.236421762118027</v>
+        <v>25.4300120694858</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.23069481874661</v>
+        <v>25.43001210194542</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.02429507826822</v>
+        <v>25.43001211256449</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.72830707174559</v>
+        <v>25.43001211580964</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.58185634788678</v>
+        <v>25.4300121320592</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.35946872655767</v>
+        <v>25.43001213726234</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.755453310870353</v>
+        <v>25.43001209089908</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.40267918515682</v>
+        <v>25.43001213047364</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.8893422205379</v>
+        <v>25.43001214304345</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.642094093870988</v>
+        <v>25.43001210143342</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.61972434236057</v>
+        <v>25.43001213732644</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.21522868714099</v>
+        <v>25.43001214948558</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.394372624109614</v>
+        <v>25.43001210194192</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.80777613375374</v>
+        <v>25.43001214258754</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.27371712992637</v>
+        <v>25.43001215635667</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.293110013665533</v>
+        <v>25.43001211422881</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.37952092421287</v>
+        <v>25.43001215045572</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.916278582100237</v>
+        <v>25.43001207635707</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.44593225227816</v>
+        <v>25.43001210991667</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.25816981299057</v>
+        <v>25.43001212044461</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.154744509819317</v>
+        <v>25.43001207930398</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.44742739483257</v>
+        <v>25.43001211730721</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.03045057949932</v>
+        <v>25.43001212922916</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.6372499602407</v>
+        <v>25.43001208907391</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.243750266923</v>
+        <v>25.43001212294568</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.10545881802133</v>
+        <v>25.43001213357157</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.92055696659972</v>
+        <v>25.43001213665768</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.94739654059322</v>
+        <v>25.43001215331551</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.81583807668693</v>
+        <v>25.43001215856497</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.36398118855702</v>
+        <v>25.43001211033026</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.75980152173803</v>
+        <v>25.43001215160682</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.33038627435931</v>
+        <v>25.43001216414833</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.93706329688366</v>
+        <v>25.43001212206811</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.60059946818377</v>
+        <v>25.43001215950159</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.28668206019201</v>
+        <v>25.43001217170576</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.869111461336583</v>
+        <v>25.43001212470171</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.84754337386859</v>
+        <v>25.43001216709175</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.41580447966584</v>
+        <v>25.43001218091188</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12.8922856160399</v>
+        <v>25.43001213798112</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.66983247415399</v>
+        <v>25.43001217576281</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.14324719998525</v>
+        <v>25.43001208028568</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.73280313626041</v>
+        <v>25.43001211373351</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.51082383824566</v>
+        <v>25.43001212416441</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.672232364109405</v>
+        <v>25.43001208375908</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.03292132167738</v>
+        <v>25.43001212163575</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.57711558366231</v>
+        <v>25.4300121334478</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.17016845676623</v>
+        <v>25.4300120935203</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.83730774246498</v>
+        <v>25.43001212727929</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.66445997151741</v>
+        <v>25.43001213780722</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.53197733724203</v>
+        <v>25.43001214073591</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.54434771057856</v>
+        <v>25.43001215727137</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.40415369595051</v>
+        <v>25.43001216248625</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.91736716687906</v>
+        <v>25.43001211440178</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.3917436905033</v>
+        <v>25.43001215555693</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>40.91730456292727</v>
+        <v>25.43001216797634</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.43075475774642</v>
+        <v>25.43001212629051</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.13511258677381</v>
+        <v>25.43001216359086</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.78517311025035</v>
+        <v>25.43001217569799</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.718441905223298</v>
+        <v>25.43001212948553</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.74323442020883</v>
+        <v>25.43001217172482</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.27063665859275</v>
+        <v>25.43001218543506</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>14.75903347472092</v>
+        <v>25.43001214275042</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.57795179925407</v>
+        <v>25.43001218039775</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.87717220268128</v>
+        <v>25.43001206660353</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.39652816082748</v>
+        <v>25.43001209950217</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.15665345220559</v>
+        <v>25.43001211014374</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.675492041583706</v>
+        <v>25.43001206899712</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.95618800108388</v>
+        <v>25.43001210625186</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.48020796020255</v>
+        <v>25.43001211830249</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.30480056952986</v>
+        <v>25.43001207820564</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.90051642490096</v>
+        <v>25.43001211141031</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.70967125514146</v>
+        <v>25.43001212215088</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.50337853981375</v>
+        <v>25.43001212509166</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.58160710702879</v>
+        <v>25.43001214156492</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.39698567686633</v>
+        <v>25.43001214685294</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.87923929406087</v>
+        <v>25.43001209940912</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.24684032432474</v>
+        <v>25.43001213994084</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.76043413890996</v>
+        <v>25.43001215263826</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.7094517690728</v>
+        <v>25.43001211053855</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.40286857069913</v>
+        <v>25.43001214724344</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.02679010884223</v>
+        <v>25.43001215957603</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.14682495333355</v>
+        <v>25.43001211254628</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.15883942992559</v>
+        <v>25.43001215411128</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.6566380385924</v>
+        <v>25.43001216807683</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.3222156937467</v>
+        <v>25.43001212514743</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.12953227781521</v>
+        <v>25.43001216219377</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.02693202957052</v>
+        <v>25.43001216272797</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.89521919975021</v>
+        <v>25.43001216290349</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.29941209010694</v>
+        <v>25.43001218201899</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.09086366456304</v>
+        <v>25.43001218794517</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.63893321543952</v>
+        <v>25.43001213438809</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.97715980348091</v>
+        <v>25.4300121790994</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>40.1604359975435</v>
+        <v>25.43001219334399</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.32062393843617</v>
+        <v>25.43001214885437</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.82533393493391</v>
+        <v>25.43001218463064</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.16991956468275</v>
+        <v>25.43001219654036</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5.619332998304465</v>
+        <v>25.43001215050663</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.41494138907803</v>
+        <v>25.43001219102004</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.73247951236455</v>
+        <v>25.43001220450672</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.04697052586661</v>
+        <v>25.43001216425374</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.66367790031665</v>
+        <v>25.43001220036281</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.0682252982007</v>
+        <v>25.43001221238331</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.26810050519728</v>
+        <v>25.43001221040957</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.1028933054884</v>
+        <v>25.43001222917344</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.1521572946349</v>
+        <v>25.43001223468889</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.60936693921147</v>
+        <v>25.43001218069277</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.58050599489063</v>
+        <v>25.4300122250851</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.51362905062517</v>
+        <v>25.43001223906613</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.40837223129385</v>
+        <v>25.43001218808051</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.30877968507538</v>
+        <v>25.43001218786774</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.90415427652933</v>
+        <v>25.43001220741221</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>47.80821219327818</v>
+        <v>25.43001221339403</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.43725462790631</v>
+        <v>25.43001215781306</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.62384162105651</v>
+        <v>25.43001220439113</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>47.91747610353529</v>
+        <v>25.4300122186449</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16.27945045029546</v>
+        <v>25.43001217056912</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.4477563710151</v>
+        <v>25.43001220787322</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.87548867599811</v>
+        <v>25.43001221979191</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.57465493134343</v>
+        <v>25.43001217434409</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.1212637103732</v>
+        <v>25.43001221658762</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.5327377284776</v>
+        <v>25.43001223008447</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>21.36858327863428</v>
+        <v>25.4300121890814</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.65390170479269</v>
+        <v>25.43001222673251</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.14212638999511</v>
+        <v>25.43001223876207</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.37129205299355</v>
+        <v>25.43001223634737</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.38713712980848</v>
+        <v>25.43001225552054</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>59.53848183933148</v>
+        <v>25.43001226106645</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.08520252163805</v>
+        <v>25.43001220509836</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.87355685389813</v>
+        <v>25.43001225132631</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>58.90879961104343</v>
+        <v>25.43001226527157</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.28012981934921</v>
+        <v>25.43001219261751</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.22485988760242</v>
+        <v>25.43001219220303</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.78500329268214</v>
+        <v>25.43001221159073</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>49.67692125815944</v>
+        <v>25.43001221753634</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.31010038632715</v>
+        <v>25.43001216216923</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.54536334558126</v>
+        <v>25.43001220859018</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.7945602146619</v>
+        <v>25.43001222272269</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.88979193556052</v>
+        <v>25.43001217447894</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.08680422433814</v>
+        <v>25.43001221165678</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.46730683851153</v>
+        <v>25.4300122234694</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>14.52710408567592</v>
+        <v>25.43001217881258</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.10637616984786</v>
+        <v>25.43001222091315</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.46428148182129</v>
+        <v>25.43001223428988</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.33818010379703</v>
+        <v>25.43001219351451</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>41.65265229814955</v>
+        <v>25.4300122310382</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>49.09321162269002</v>
+        <v>25.43001224296071</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.35639739513492</v>
+        <v>25.43001224037602</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>56.33009763067682</v>
+        <v>25.43001225939516</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>61.46290608853127</v>
+        <v>25.4300122649015</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.03944473270512</v>
+        <v>25.43001220915152</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>51.86096737904511</v>
+        <v>25.43001225522979</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.83992465744323</v>
+        <v>25.43001226904223</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.8053095507169</v>
+        <v>25.43001217464108</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.7482321723228</v>
+        <v>25.43001217427675</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.43222109664345</v>
+        <v>25.43001219362735</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.2772361216665</v>
+        <v>25.43001219965712</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.76854917608126</v>
+        <v>25.4300121449485</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.98272030513701</v>
+        <v>25.43001219070265</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.2049306867971</v>
+        <v>25.43001220513203</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.54845312435264</v>
+        <v>25.4300121588581</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.75910477788042</v>
+        <v>25.43001219546154</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.1312697156095</v>
+        <v>25.43001220751987</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.36648182080736</v>
+        <v>25.43001216203968</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.96073388124752</v>
+        <v>25.43001220348978</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.30925077291972</v>
+        <v>25.43001221714475</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.30295699957512</v>
+        <v>25.43001217610488</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.6305954706656</v>
+        <v>25.43001221304881</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.06271579465449</v>
+        <v>25.43001222521931</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.3581863730377</v>
+        <v>25.43001222271052</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.47088025700129</v>
+        <v>25.43001224170539</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.56997392351612</v>
+        <v>25.43001224730772</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.98125527620016</v>
+        <v>25.4300121921393</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.81442426688373</v>
+        <v>25.43001223758537</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.78305424719191</v>
+        <v>25.4300122517207</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.098809995745029</v>
+        <v>25.43001203477728</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.29596457107777</v>
+        <v>25.43001206665677</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.43504110565905</v>
+        <v>25.43001207695606</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.308283502491822</v>
+        <v>25.43001203405295</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.47679235367767</v>
+        <v>25.4300120701536</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.29814849593432</v>
+        <v>25.43001208181663</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4.646093369827724</v>
+        <v>25.43001204238167</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.91039815732883</v>
+        <v>25.43001207455771</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.09368284390149</v>
+        <v>25.43001208495282</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18.92722958644579</v>
+        <v>25.43001208931517</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.51562654968114</v>
+        <v>25.43001210522266</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.72787671918342</v>
+        <v>25.43001211039119</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.2765590333495</v>
+        <v>25.43001206504162</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.09548444470251</v>
+        <v>25.430012104267</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.72248839495386</v>
+        <v>25.43001211662557</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.169561524478702</v>
+        <v>25.43001207882114</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.50459567338006</v>
+        <v>25.43001211457685</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.57599426658397</v>
+        <v>25.43001212654051</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.882952265134531</v>
+        <v>25.43001207771677</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.59201406800649</v>
+        <v>25.4300121182069</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.46482592206728</v>
+        <v>25.43001213175467</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.904722623386313</v>
+        <v>25.43001208964432</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.34372953424693</v>
+        <v>25.43001212573265</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.066233647118562</v>
+        <v>25.43001205025961</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.84628241489915</v>
+        <v>25.43001208351359</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.05337293675551</v>
+        <v>25.43001209382956</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.504891336479112</v>
+        <v>25.43001205140112</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.94959428255543</v>
+        <v>25.43001208905826</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.84782984162654</v>
+        <v>25.43001210074017</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.697555237701492</v>
+        <v>25.4300120604472</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.54914332117401</v>
+        <v>25.43001209401053</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.8009061411675</v>
+        <v>25.43001210442246</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.72828881569475</v>
+        <v>25.43001210861927</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.48487626059073</v>
+        <v>25.4300121249251</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.78270436934228</v>
+        <v>25.4300121301511</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11.51453105237979</v>
+        <v>25.4300120829645</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.05397356634035</v>
+        <v>25.43001212386176</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.76234577828156</v>
+        <v>25.43001213620662</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.16275279971989</v>
+        <v>25.43001209815978</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.16482115383103</v>
+        <v>25.43001213543289</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.32674246263434</v>
+        <v>25.43001214745052</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.08232477761873</v>
+        <v>25.43001209910805</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.31218928910728</v>
+        <v>25.43001214131651</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.28731098600858</v>
+        <v>25.43001215492539</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.17298676370164</v>
+        <v>25.43001211194344</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.28410523043216</v>
+        <v>25.43001214956329</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.200767082115501</v>
+        <v>25.43001205415211</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.03966576111797</v>
+        <v>25.43001208728604</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.21876849677603</v>
+        <v>25.43001209751078</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.930709841789515</v>
+        <v>25.43001205582589</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.44221912653895</v>
+        <v>25.4300120933471</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.30868931090951</v>
+        <v>25.43001210492569</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>11.13101791927413</v>
+        <v>25.43001206485025</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.04217859824585</v>
+        <v>25.43001209829241</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.26567474307014</v>
+        <v>25.43001210861226</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.24226028146387</v>
+        <v>25.43001211265402</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.98531450721654</v>
+        <v>25.43001212883702</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.27859070432586</v>
+        <v>25.43001213403178</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.97398309191956</v>
+        <v>25.43001208699535</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.59085835112202</v>
+        <v>25.43001212776094</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.26192870054644</v>
+        <v>25.43001213998986</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.54767012231451</v>
+        <v>25.43001210231219</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.59063683301657</v>
+        <v>25.43001213944245</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.7219548262381</v>
+        <v>25.43001215136822</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5.823942826588656</v>
+        <v>25.43001210382861</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.10024563882568</v>
+        <v>25.4300121458753</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.04065874312003</v>
+        <v>25.43001215938017</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.92026943405817</v>
+        <v>25.43001211663181</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.07283316545882</v>
+        <v>25.43001215410748</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.127251030003844</v>
+        <v>25.43001204102224</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.89628498303168</v>
+        <v>25.43001207361431</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.04991196930683</v>
+        <v>25.43001208403537</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.148981476381127</v>
+        <v>25.4300120416557</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.58088650385761</v>
+        <v>25.43001207856329</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.41858988283246</v>
+        <v>25.4300120903642</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.48901114731592</v>
+        <v>25.43001205016994</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.32909873705373</v>
+        <v>25.43001208306518</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.52694739367981</v>
+        <v>25.43001209358319</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.42275710362479</v>
+        <v>25.43001209767974</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.22884456181934</v>
+        <v>25.43001211379728</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.47388164880311</v>
+        <v>25.43001211905326</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.13832943088103</v>
+        <v>25.43001207265748</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.64937976502501</v>
+        <v>25.43001211280676</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.29858011742044</v>
+        <v>25.4300121252949</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>11.0704742407944</v>
+        <v>25.43001208706345</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.10048393384112</v>
+        <v>25.43001212360716</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.20321572380984</v>
+        <v>25.43001213574253</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4.508811684284467</v>
+        <v>25.43001208742816</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.77006210966225</v>
+        <v>25.43001212881063</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.67808707064032</v>
+        <v>25.43001214255284</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.75818301643944</v>
+        <v>25.43001209961455</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.89712153549248</v>
+        <v>25.4300121364982</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.46296734953563</v>
+        <v>25.4300121378076</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.1699121056754</v>
+        <v>25.43001213907449</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.29016461303908</v>
+        <v>25.43001215782409</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.54699263244985</v>
+        <v>25.43001216371595</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.036759630568087</v>
+        <v>25.43001211105385</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.60118392024273</v>
+        <v>25.43001215554874</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.05815728408514</v>
+        <v>25.43001216964516</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.03468385180613</v>
+        <v>25.43001213026531</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.05933801230971</v>
+        <v>25.43001216604988</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.83034522672901</v>
+        <v>25.43001217769001</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.918617267802318</v>
+        <v>25.43001213046835</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.17102954304123</v>
+        <v>25.43001217099117</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.83950813198545</v>
+        <v>25.43001218417256</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.75393406579058</v>
+        <v>25.43001214409064</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.88703863852838</v>
+        <v>25.43001218020809</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.71364926355938</v>
+        <v>25.4300121919565</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.83273147054928</v>
+        <v>25.43001219101662</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.4187241952154</v>
+        <v>25.43001220945709</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.91891818742897</v>
+        <v>25.43001221491681</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.18982859916263</v>
+        <v>25.43001216163395</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.58887781793416</v>
+        <v>25.43001220600674</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.71106988716375</v>
+        <v>25.43001221972399</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.49445789670142</v>
+        <v>25.43001216169271</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.21704402663035</v>
+        <v>25.43001216257545</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.5268066430294</v>
+        <v>25.43001218174388</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.88897404789927</v>
+        <v>25.43001218770198</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.48010580250982</v>
+        <v>25.43001213304627</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.87175420662814</v>
+        <v>25.43001217937739</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.43637638614407</v>
+        <v>25.43001219349629</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.75461587333197</v>
+        <v>25.43001215080556</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.42637453889733</v>
+        <v>25.4300121880969</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.27968820849326</v>
+        <v>25.43001219975296</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.63535234012081</v>
+        <v>25.43001215307691</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.62006729334954</v>
+        <v>25.43001219530601</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.38158582351062</v>
+        <v>25.43001220850545</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.81372926819786</v>
+        <v>25.43001216760906</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.59881275361727</v>
+        <v>25.4300122052473</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.5083000971574</v>
+        <v>25.43001221701179</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.64531097431788</v>
+        <v>25.43001221565094</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.40932606968281</v>
+        <v>25.43001223449191</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58.00363760673977</v>
+        <v>25.43001223998997</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.38399770509091</v>
+        <v>25.43001218475936</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>48.58206521868719</v>
+        <v>25.43001223094079</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.80175673131913</v>
+        <v>25.43001224463238</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.25229841288571</v>
+        <v>25.43001216614419</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.01870039478924</v>
+        <v>25.43001216683033</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.29544108389537</v>
+        <v>25.43001218584254</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>46.64855074921104</v>
+        <v>25.43001219176682</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.24113298349121</v>
+        <v>25.43001213732552</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.68222965134325</v>
+        <v>25.43001218348804</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.20882525151647</v>
+        <v>25.43001219749055</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.26328616792534</v>
+        <v>25.43001215463128</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.96292652502024</v>
+        <v>25.43001219178673</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.77474930873642</v>
+        <v>25.43001220334163</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.4893436595736</v>
+        <v>25.43001215746882</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.5057772280687</v>
+        <v>25.43001219954403</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.2202388318279</v>
+        <v>25.43001221262891</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.67328642136194</v>
+        <v>25.43001217194709</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.48668728995138</v>
+        <v>25.43001220944817</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.35430574865222</v>
+        <v>25.43001222111055</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45.52516072144572</v>
+        <v>25.43001221958689</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>55.2486562919347</v>
+        <v>25.43001223827443</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>59.82754382134851</v>
+        <v>25.43001224373521</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.23613362164355</v>
+        <v>25.43001218872375</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.46718774310286</v>
+        <v>25.43001223474462</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.63725739148367</v>
+        <v>25.43001224830804</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.04771110345568</v>
+        <v>25.43001214874645</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.79280281526392</v>
+        <v>25.43001214952158</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>41.1879301944665</v>
+        <v>25.43001216849454</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.49388509767659</v>
+        <v>25.43001217449007</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.94490389960422</v>
+        <v>25.43001212070797</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.36242501315286</v>
+        <v>25.43001216621396</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.85870564985704</v>
+        <v>25.43001218049356</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.1466024646152</v>
+        <v>25.43001213949918</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.85851782070525</v>
+        <v>25.43001217609232</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.66006230211985</v>
+        <v>25.43001218787565</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.55409903883691</v>
+        <v>25.43001214121331</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.58397865916156</v>
+        <v>25.43001218265175</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.28684200272382</v>
+        <v>25.43001219599532</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.88363030559039</v>
+        <v>25.4300121551025</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.70883231944796</v>
+        <v>25.43001219203604</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.56605015368005</v>
+        <v>25.43001220392899</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.74805775462793</v>
+        <v>25.43001220250794</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>53.60633118470994</v>
+        <v>25.43001222116886</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>58.15219740057084</v>
+        <v>25.4300122267151</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.3921708616961</v>
+        <v>25.43001217228822</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.6330247185408</v>
+        <v>25.43001221769104</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>56.79033686096297</v>
+        <v>25.43001223155589</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.031986302453944</v>
+        <v>25.43001203438387</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.36708157517938</v>
+        <v>25.43001206646147</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.48038810349475</v>
+        <v>25.4300120767942</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.419066179366485</v>
+        <v>25.43001203366185</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.52203333527604</v>
+        <v>25.43001206998684</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.31418834737504</v>
+        <v>25.43001208168773</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.614996795217206</v>
+        <v>25.43001204205735</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.01816023072461</v>
+        <v>25.43001207443335</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.17545607395202</v>
+        <v>25.4300120848622</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.08246460484288</v>
+        <v>25.43001208927625</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.74820530478474</v>
+        <v>25.43001210528136</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.93611987648134</v>
+        <v>25.43001211047389</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>6.274732530387009</v>
+        <v>25.43001206482981</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.267375415692</v>
+        <v>25.430012104303</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.86271928263304</v>
+        <v>25.43001211670131</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.005717922358922</v>
+        <v>25.43001207936753</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.51781030361289</v>
+        <v>25.43001211537096</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.56023980968514</v>
+        <v>25.43001212736563</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.086172892215401</v>
+        <v>25.43001207830248</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.58907691737242</v>
+        <v>25.43001211907313</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.42904044037604</v>
+        <v>25.43001213265601</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>6.840019775138042</v>
+        <v>25.430012090349</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.45728903423558</v>
+        <v>25.43001212668734</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>7.02730467104525</v>
+        <v>25.43001204995216</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.94991553262464</v>
+        <v>25.43001208341362</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.1307775420485</v>
+        <v>25.43001209376182</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.427923055713094</v>
+        <v>25.4300120511055</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.03387916661188</v>
+        <v>25.4300120889976</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.90239555512094</v>
+        <v>25.430012100716</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.701785329830255</v>
+        <v>25.43001206021885</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.69688975259767</v>
+        <v>25.43001209399158</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.92220194974934</v>
+        <v>25.43001210443604</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.92494716107206</v>
+        <v>25.43001210868088</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.75997258196179</v>
+        <v>25.43001212508686</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.03365755881879</v>
+        <v>25.43001213033727</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.54913564672036</v>
+        <v>25.43001208284482</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.26809058242821</v>
+        <v>25.430012124001</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.94421583117592</v>
+        <v>25.43001213638413</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.04164047685086</v>
+        <v>25.43001209882519</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.22629380662655</v>
+        <v>25.43001213635714</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.35851417302676</v>
+        <v>25.43001214840422</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.926948401739292</v>
+        <v>25.43001209982237</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.36334984318278</v>
+        <v>25.43001214232394</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.30479612084194</v>
+        <v>25.43001215596618</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>13.15882317137242</v>
+        <v>25.4300121127786</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.45377341247563</v>
+        <v>25.43001215065969</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.17138538077922</v>
+        <v>25.43001205386737</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.15292386422696</v>
+        <v>25.4300120872079</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.30579837516947</v>
+        <v>25.43001209746435</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.865482121941334</v>
+        <v>25.43001205555588</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.53833347510795</v>
+        <v>25.43001209331105</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.37508529414328</v>
+        <v>25.43001210492555</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.14679950743353</v>
+        <v>25.43001206464672</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.20155683245589</v>
+        <v>25.4300120982974</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.39860281773671</v>
+        <v>25.43001210864926</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.45038438546219</v>
+        <v>25.43001211273813</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.27143209430997</v>
+        <v>25.4300121290202</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.54075599443486</v>
+        <v>25.43001213423927</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>13.01990405461635</v>
+        <v>25.43001208689831</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.81637497047907</v>
+        <v>25.43001212792166</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.4551962921155</v>
+        <v>25.43001214018827</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.43196896726467</v>
+        <v>25.43001210299628</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.6575061772475</v>
+        <v>25.43001214038443</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.7590195442714</v>
+        <v>25.43001215233897</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.675871657010408</v>
+        <v>25.43001210456426</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.1586959115085</v>
+        <v>25.43001214690298</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.06531703537404</v>
+        <v>25.43001216044042</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.91298035236635</v>
+        <v>25.43001211748703</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.24936320972476</v>
+        <v>25.43001215522297</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.094153964017185</v>
+        <v>25.4300120406737</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.00656031573543</v>
+        <v>25.43001207346806</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.13306438111227</v>
+        <v>25.43001208392258</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.07410166199243</v>
+        <v>25.430012041318</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.66817626918819</v>
+        <v>25.43001207845466</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.47514728487974</v>
+        <v>25.43001209029348</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.49662352492459</v>
+        <v>25.43001204989904</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.48104222146375</v>
+        <v>25.43001208299847</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.65153792754907</v>
+        <v>25.43001209355025</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.62262671367069</v>
+        <v>25.43001209769833</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.50797364121797</v>
+        <v>25.43001211391399</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.72808428917194</v>
+        <v>25.4300121191943</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.17439964478658</v>
+        <v>25.4300120724979</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.86593068286964</v>
+        <v>25.4300121129001</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.48183890393267</v>
+        <v>25.43001212542812</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.96187014750634</v>
+        <v>25.43001208767174</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.17552136668767</v>
+        <v>25.43001212446866</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.24765803753954</v>
+        <v>25.43001213663468</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.361938343244898</v>
+        <v>25.4300120880851</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.83092053234441</v>
+        <v>25.43001212975431</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.70425691438821</v>
+        <v>25.43001214353124</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.75431473222269</v>
+        <v>25.4300121003905</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.0781477363833</v>
+        <v>25.43001213752973</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.54729690492489</v>
+        <v>25.43001213879359</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.29273097612323</v>
+        <v>25.4300121400705</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.51616778721464</v>
+        <v>25.43001215893671</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>38.74432871278559</v>
+        <v>25.43001216484662</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.970856822276852</v>
+        <v>25.43001211182158</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.75846249469917</v>
+        <v>25.43001215662502</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.17898849994178</v>
+        <v>25.43001217075918</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.79829185676505</v>
+        <v>25.4300121310117</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.00750484203537</v>
+        <v>25.43001216704539</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.74591070808801</v>
+        <v>25.43001217870727</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.65798324599951</v>
+        <v>25.43001213125082</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.11914203822353</v>
+        <v>25.43001217205573</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.75070934938898</v>
+        <v>25.43001218526177</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.61993861818083</v>
+        <v>25.43001214499593</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.9388675138401</v>
+        <v>25.43001218136481</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.73260993404125</v>
+        <v>25.43001219313518</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.9007750760182</v>
+        <v>25.43001219219195</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.59426969058913</v>
+        <v>25.43001221074605</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.06259462700092</v>
+        <v>25.43001221621986</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.05958886771211</v>
+        <v>25.43001216257795</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.69215949788732</v>
+        <v>25.4300122072592</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.77303847355262</v>
+        <v>25.43001222100328</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.63415919771433</v>
+        <v>25.43001216281884</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.39605084996839</v>
+        <v>25.43001216370515</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.81036580960108</v>
+        <v>25.43001218299299</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.14371755336427</v>
+        <v>25.43001218896895</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.464720201537</v>
+        <v>25.43001213393779</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.08648033939162</v>
+        <v>25.43001218059033</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>45.6137202722775</v>
+        <v>25.430012194745</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.5642472159267</v>
+        <v>25.43001215167399</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.42611464157234</v>
+        <v>25.43001218922554</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.24590709813113</v>
+        <v>25.43001220090148</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.42705224079591</v>
+        <v>25.43001215399102</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.62679329060066</v>
+        <v>25.43001219651478</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.35036130346598</v>
+        <v>25.43001220973673</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.7346132811394</v>
+        <v>25.43001216864777</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.71111349750689</v>
+        <v>25.43001220654864</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.58680657362251</v>
+        <v>25.43001221833319</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.77356153328574</v>
+        <v>25.43001221696213</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.64646654131653</v>
+        <v>25.43001223591959</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>59.20847388699445</v>
+        <v>25.43001224143145</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.30811538367393</v>
+        <v>25.43001218582975</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.7466544221063</v>
+        <v>25.43001223233244</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.92388122697182</v>
+        <v>25.43001224604865</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>38.39875746420305</v>
+        <v>25.43001216728872</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.20433449625422</v>
+        <v>25.43001216797727</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.58502834337168</v>
+        <v>25.43001218710774</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>47.90940145955344</v>
+        <v>25.43001219304957</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.23232448390161</v>
+        <v>25.43001213823468</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.90349581255351</v>
+        <v>25.43001218471731</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>47.39257779040486</v>
+        <v>25.43001219875475</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.08000118127101</v>
+        <v>25.43001215551539</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.96967758881683</v>
+        <v>25.43001219293014</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.74786345675382</v>
+        <v>25.4300122045043</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.29015747671086</v>
+        <v>25.43001215840134</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.52153570999409</v>
+        <v>25.43001220077019</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.19791651980064</v>
+        <v>25.43001221387688</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.60291929979658</v>
+        <v>25.43001217300281</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.60766526354064</v>
+        <v>25.43001221076561</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.44137323161731</v>
+        <v>25.43001222244744</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.66161616574415</v>
+        <v>25.43001222091233</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>56.49337620654885</v>
+        <v>25.43001223971526</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>61.04000370533214</v>
+        <v>25.4300122451896</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.16840620011663</v>
+        <v>25.43001218980884</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>51.63982491520552</v>
+        <v>25.43001223614977</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>59.76729876854078</v>
+        <v>25.43001224973707</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.19786794989805</v>
+        <v>25.43001214980892</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.98199844057021</v>
+        <v>25.43001215059207</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.48281196352178</v>
+        <v>25.43001216968262</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.75904843867823</v>
+        <v>25.43001217569593</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.93788733739745</v>
+        <v>25.43001212154395</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.58679109154116</v>
+        <v>25.43001216736512</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.04460491108739</v>
+        <v>25.43001218168201</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.96542633858513</v>
+        <v>25.43001214030699</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.86853705924144</v>
+        <v>25.43001217715488</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.63582221460302</v>
+        <v>25.43001218895947</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.35062187334029</v>
+        <v>25.43001214206669</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.59675587927987</v>
+        <v>25.43001218379361</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.26083304550026</v>
+        <v>25.43001219716126</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.8110108051321</v>
+        <v>25.43001215607867</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.82872241793612</v>
+        <v>25.43001219326934</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.65140147441863</v>
+        <v>25.43001220518375</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.88294101194633</v>
+        <v>25.43001220375689</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.85121951476053</v>
+        <v>25.43001222253233</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.36413182229116</v>
+        <v>25.43001222809246</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.3211674381909</v>
+        <v>25.43001217329967</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.80379718361025</v>
+        <v>25.43001221901775</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>57.91778077003896</v>
+        <v>25.43001223290886</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.864566556764505</v>
+        <v>25.43001205114919</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.15497437180134</v>
+        <v>25.43001208278988</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.71599953299044</v>
+        <v>25.43001209318882</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.875561201594561</v>
+        <v>25.43001205153216</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.01450011063331</v>
+        <v>25.4300120873624</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.31317256397563</v>
+        <v>25.43001209913826</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.984603948823406</v>
+        <v>25.43001206001806</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.34237921276213</v>
+        <v>25.43001209195308</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.95077382395026</v>
+        <v>25.43001210244875</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.88401695627201</v>
+        <v>25.43001210606948</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.48987060296044</v>
+        <v>25.43001212207443</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.15470751919526</v>
+        <v>25.43001212724042</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.455859252073363</v>
+        <v>25.4300120817825</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.34565407984019</v>
+        <v>25.43001212071318</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.59031902072754</v>
+        <v>25.4300121331473</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.569061938539861</v>
+        <v>25.43001209261837</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.82835592920307</v>
+        <v>25.43001212793319</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.24334760001882</v>
+        <v>25.43001213996443</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-5.611321780715301</v>
+        <v>25.43001209253549</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.77757643370298</v>
+        <v>25.43001213252635</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.03908136219896</v>
+        <v>25.43001214615066</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.71412721484235</v>
+        <v>25.43001210430721</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.0765061546905</v>
+        <v>25.43001213995054</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.015590587696092</v>
+        <v>25.43001206750965</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.89872115319673</v>
+        <v>25.43001210052639</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.52525621407569</v>
+        <v>25.43001211093395</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.096898769819482</v>
+        <v>25.43001206979748</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.65772218804616</v>
+        <v>25.43001210718598</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.03039841803283</v>
+        <v>25.43001211897161</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.220941479279706</v>
+        <v>25.43001207906365</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.17590185775066</v>
+        <v>25.43001211238754</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.85021688733022</v>
+        <v>25.43001212289192</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.89435739380324</v>
+        <v>25.4300121263662</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.66892066005999</v>
+        <v>25.43001214277354</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.42258917930091</v>
+        <v>25.43001214798685</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.89670262569377</v>
+        <v>25.43001210068918</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.51665042800526</v>
+        <v>25.43001214129398</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.84218855005149</v>
+        <v>25.43001215370204</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.694878431166444</v>
+        <v>25.43001211272076</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.62373312983642</v>
+        <v>25.4300121495501</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.12664399010853</v>
+        <v>25.43001216162722</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.4605879237962291</v>
+        <v>25.43001211471542</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.60726306079811</v>
+        <v>25.43001215642134</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.96808088739733</v>
+        <v>25.43001217009759</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.15163182336561</v>
+        <v>25.43001216462994</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>7.245087729410539</v>
+        <v>25.43001207147395</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.1899174131891</v>
+        <v>25.43001210438092</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.7831540586313</v>
+        <v>25.43001211469276</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.612292161074333</v>
+        <v>25.43001207428565</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.24315399657151</v>
+        <v>25.43001211154983</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.57804274359056</v>
+        <v>25.43001212322706</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.754130940427469</v>
+        <v>25.43001208354694</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.77153835105964</v>
+        <v>25.43001211676002</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.41222514236807</v>
+        <v>25.43001212716779</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.50610575523606</v>
+        <v>25.43001213048276</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.26731200421498</v>
+        <v>25.43001214676941</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.01268899820792</v>
+        <v>25.43001215194876</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>12.44921402702521</v>
+        <v>25.43001210479661</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.14965052305523</v>
+        <v>25.43001214528209</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.43136638408891</v>
+        <v>25.43001215756971</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.185305729364682</v>
+        <v>25.43001211696972</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.15725804543901</v>
+        <v>25.4300121536681</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.62485404998863</v>
+        <v>25.430012165649</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>2.300830609661517</v>
+        <v>25.43001211952238</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.4964412831768</v>
+        <v>25.43001216107999</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.8172029487604</v>
+        <v>25.43001217464729</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>9.974286241139428</v>
+        <v>25.4300121322543</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.05498447721354</v>
+        <v>25.43001216929406</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>6.918815103048768</v>
+        <v>25.43001205805484</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.78723117849327</v>
+        <v>25.43001209042252</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.36190859115078</v>
+        <v>25.43001210094048</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>2.567684759544289</v>
+        <v>25.43001205980859</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.11152017887733</v>
+        <v>25.43001209646207</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.42548202911978</v>
+        <v>25.43001210837273</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>8.832997392296877</v>
+        <v>25.43001206852726</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.77272404097217</v>
+        <v>25.43001210119603</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.39474195943974</v>
+        <v>25.43001211181184</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.41840617670879</v>
+        <v>25.4300121151365</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.24292175958955</v>
+        <v>25.43001213136146</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.94405074794874</v>
+        <v>25.43001213661225</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>11.3578832669259</v>
+        <v>25.43001209009111</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.94497772876213</v>
+        <v>25.43001212996405</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.21366002006266</v>
+        <v>25.43001214252484</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>7.407546986020886</v>
+        <v>25.43001210151024</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.36041918933772</v>
+        <v>25.43001213762449</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.80248548672666</v>
+        <v>25.43001214982619</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>0.6870262263085571</v>
+        <v>25.43001210289825</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.86064403061082</v>
+        <v>25.43001214379439</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.15249151747319</v>
+        <v>25.43001215761172</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>8.487935064679437</v>
+        <v>25.43001211497743</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.54883155261799</v>
+        <v>25.43001215142763</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.54180263152799</v>
+        <v>25.4300121520937</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.71231726897209</v>
+        <v>25.43001215268739</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.82411454237416</v>
+        <v>25.4300121715258</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.49155067710964</v>
+        <v>25.43001217741536</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>6.026236940609635</v>
+        <v>25.43001212483394</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.49006253505506</v>
+        <v>25.43001216882078</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.43718332637066</v>
+        <v>25.43001218292767</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>6.932800329979145</v>
+        <v>25.43001214105343</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.78133889557932</v>
+        <v>25.43001217628053</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.91085917401119</v>
+        <v>25.43001218807684</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>1.96629571099626</v>
+        <v>25.43001214215189</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.01913894595661</v>
+        <v>25.43001218204341</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.09295932797718</v>
+        <v>25.43001219540168</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.13655894432068</v>
+        <v>25.43001215545702</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.09192236340409</v>
+        <v>25.43001219101182</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.27941797871984</v>
+        <v>25.43001220291787</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.73036547823824</v>
+        <v>25.43001220133767</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.28483923923131</v>
+        <v>25.43001221984425</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.19511416895442</v>
+        <v>25.43001222533162</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>15.57390098866365</v>
+        <v>25.43001217223128</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.73992067631934</v>
+        <v>25.4300122159392</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.3970191483574</v>
+        <v>25.43001222980095</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.70537774305135</v>
+        <v>25.43001217681941</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.91080558020401</v>
+        <v>25.43001217704456</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.20876000391341</v>
+        <v>25.43001219630599</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.98638510398908</v>
+        <v>25.43001220225227</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>12.62394226821385</v>
+        <v>25.43001214768093</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.91581517974042</v>
+        <v>25.430012193503</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.96966446039745</v>
+        <v>25.43001220762028</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.73388888335667</v>
+        <v>25.4300121622829</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.23025302422133</v>
+        <v>25.43001219901294</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.44039338282441</v>
+        <v>25.43001221081969</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8.741913447020362</v>
+        <v>25.43001216546023</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.52789934946715</v>
+        <v>25.43001220705369</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.69279872681986</v>
+        <v>25.43001222042378</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>17.27319220785433</v>
+        <v>25.43001217973707</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.88126477382077</v>
+        <v>25.43001221680878</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.14989247582827</v>
+        <v>25.43001222872537</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.63402545669961</v>
+        <v>25.4300122267258</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.36451635279668</v>
+        <v>25.43001224563641</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>54.37462486591403</v>
+        <v>25.43001225115518</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.86335517040986</v>
+        <v>25.43001219611285</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.82697065092405</v>
+        <v>25.43001224162657</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.58262605756616</v>
+        <v>25.43001225545443</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.57308365852619</v>
+        <v>25.43001218138641</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.82022618895564</v>
+        <v>25.43001218140962</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.08434890920044</v>
+        <v>25.43001220051607</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.85016162949169</v>
+        <v>25.43001220642651</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>14.48877429303607</v>
+        <v>25.43001215206417</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.83189955184796</v>
+        <v>25.43001219773146</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.84224184088647</v>
+        <v>25.43001221172854</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>14.33761991236086</v>
+        <v>25.43001216621417</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.86446803476623</v>
+        <v>25.4300122028197</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.02850436358989</v>
+        <v>25.4300122145214</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>10.68317769179293</v>
+        <v>25.43001216994684</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.50383599078523</v>
+        <v>25.43001221139931</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.6164446326961</v>
+        <v>25.43001222465044</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>19.23316469428683</v>
+        <v>25.4300121841918</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.87217947678225</v>
+        <v>25.43001222113785</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.09427971703033</v>
+        <v>25.43001223294841</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.61069398991914</v>
+        <v>25.43001223077905</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.3003086777952</v>
+        <v>25.43001224953733</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>56.29241877010521</v>
+        <v>25.430012255017</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.8080799551239</v>
+        <v>25.43001220018826</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>46.80689514825909</v>
+        <v>25.43001224555417</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.50766533757179</v>
+        <v>25.43001225925049</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.04114335589651</v>
+        <v>25.43001216374284</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.2895480796661</v>
+        <v>25.43001216381073</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.6740408629325</v>
+        <v>25.43001218287984</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.39368227567511</v>
+        <v>25.4300121888721</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.90027399004548</v>
+        <v>25.4300121351586</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.21331718247723</v>
+        <v>25.43001218017161</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.19709548573306</v>
+        <v>25.43001219446058</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>12.95494839138022</v>
+        <v>25.43001215086246</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.48823941920151</v>
+        <v>25.43001218690422</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.64371781453079</v>
+        <v>25.43001219884724</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.492468145889601</v>
+        <v>25.43001215346406</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.31996226919161</v>
+        <v>25.43001219427811</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.4229290658475</v>
+        <v>25.43001220780251</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>17.16208136494141</v>
+        <v>25.43001216708166</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.80701394118274</v>
+        <v>25.43001220345869</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.02045010311544</v>
+        <v>25.43001221551281</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>39.57095361392204</v>
+        <v>25.43001221341175</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.39645840749827</v>
+        <v>25.43001223214537</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.35500186348089</v>
+        <v>25.43001223771954</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.71407657744101</v>
+        <v>25.43001218346466</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.71655753548773</v>
+        <v>25.43001222820978</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>53.40657357379885</v>
+        <v>25.43001224222448</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>5.143831560276226</v>
+        <v>25.4300120597274</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.90566870682927</v>
+        <v>25.43001209129062</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.50601890863928</v>
+        <v>25.43001210157732</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.7860819594798691</v>
+        <v>25.43001206066729</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.21036746096563</v>
+        <v>25.4300120964098</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.55358683239939</v>
+        <v>25.43001210805856</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6.731765832180749</v>
+        <v>25.43001206930719</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.56538655289953</v>
+        <v>25.43001210116402</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.21343784940186</v>
+        <v>25.43001211154641</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.8983557381602</v>
+        <v>25.43001211468124</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.71419340088962</v>
+        <v>25.4300121306213</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.37542364983376</v>
+        <v>25.43001213572238</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>9.12131176307142</v>
+        <v>25.43001209029014</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.59355040765576</v>
+        <v>25.43001212911963</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.89369944270852</v>
+        <v>25.43001214142476</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>6.004558383324927</v>
+        <v>25.43001210124963</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.70901060044282</v>
+        <v>25.43001213646567</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.08571330197538</v>
+        <v>25.43001214834986</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-0.7042156381339595</v>
+        <v>25.4300121017533</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.18910052440717</v>
+        <v>25.43001214163229</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.4072026471249</v>
+        <v>25.43001215509007</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>6.731788461874082</v>
+        <v>25.43001211367799</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.5435004756707</v>
+        <v>25.43001214922161</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>9.309809479040883</v>
+        <v>25.4300120760651</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.66836984389669</v>
+        <v>25.43001210900037</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.33138613880193</v>
+        <v>25.43001211928723</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>5.76980433180244</v>
+        <v>25.4300120788978</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.86939068691665</v>
+        <v>25.43001211619402</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.28339047824181</v>
+        <v>25.43001212784297</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>11.97756714862398</v>
+        <v>25.43001208831037</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.41241837209556</v>
+        <v>25.43001212155201</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.12351978259458</v>
+        <v>25.43001213193457</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.91456147164062</v>
+        <v>25.43001213491318</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.90069540949466</v>
+        <v>25.43001215125452</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.6494562856347</v>
+        <v>25.4300121563978</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>14.56807690798363</v>
+        <v>25.43001210913943</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.77512563225815</v>
+        <v>25.43001214963788</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.15337251732543</v>
+        <v>25.43001216190675</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>11.15458574486205</v>
+        <v>25.43001212129522</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.53165097572379</v>
+        <v>25.43001215802117</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.99205386311812</v>
+        <v>25.43001216994043</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>5.387565697907423</v>
+        <v>25.430012123861</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.04212084148632</v>
+        <v>25.43001216544984</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.35475442445877</v>
+        <v>25.43001217894734</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.63959180204367</v>
+        <v>25.43001217381485</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.51462081058109</v>
+        <v>25.43001207991633</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.93161294921803</v>
+        <v>25.43001211274244</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.55995710255733</v>
+        <v>25.43001212293294</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.256333250880228</v>
+        <v>25.43001208326276</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.42225721714444</v>
+        <v>25.43001212043538</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.79691276483966</v>
+        <v>25.43001213197519</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.48034461353495</v>
+        <v>25.43001209266758</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.97434738445528</v>
+        <v>25.43001212579905</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.65043406821207</v>
+        <v>25.43001213608434</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.49237846770761</v>
+        <v>25.43001213890879</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.4636852797597</v>
+        <v>25.43001215513032</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.20371061281649</v>
+        <v>25.43001216023915</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.09008781866396</v>
+        <v>25.43001211312862</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.37349799254269</v>
+        <v>25.43001215350839</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.70636853119072</v>
+        <v>25.43001216565604</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.61317822761102</v>
+        <v>25.43001212542153</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.03012055031665</v>
+        <v>25.4300121620171</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.45418165639187</v>
+        <v>25.4300121738394</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.190941320098833</v>
+        <v>25.43001212853371</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.89078385941658</v>
+        <v>25.43001216997491</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.16219749440607</v>
+        <v>25.4300121833626</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>14.97114469935059</v>
+        <v>25.43001214140617</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.50101371199449</v>
+        <v>25.43001217834216</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.20995982013737</v>
+        <v>25.43001206663072</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.55929911527852</v>
+        <v>25.43001209891945</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.17312259557525</v>
+        <v>25.43001210932023</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>6.241509619326362</v>
+        <v>25.43001206893334</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.33033324236826</v>
+        <v>25.43001210549743</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.68863863710128</v>
+        <v>25.43001211727538</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>12.59029806766057</v>
+        <v>25.43001207780475</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.01545955002595</v>
+        <v>25.43001211039384</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.67695072979505</v>
+        <v>25.43001212089138</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.44492035649956</v>
+        <v>25.43001212372847</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.48329230795548</v>
+        <v>25.43001213988871</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.1808006866265</v>
+        <v>25.43001214507151</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>15.03246125272698</v>
+        <v>25.43001209858188</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.21371875391593</v>
+        <v>25.43001213835121</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.53807128608108</v>
+        <v>25.43001215077735</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>11.88071460323677</v>
+        <v>25.43001211011449</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.28747048131568</v>
+        <v>25.43001214612771</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.68877732785108</v>
+        <v>25.43001215817596</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>5.634364888904869</v>
+        <v>25.43001211207778</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.32229140045569</v>
+        <v>25.43001215285951</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.56793688573237</v>
+        <v>25.43001216650308</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>13.54389561197728</v>
+        <v>25.43001212430793</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.06293734287901</v>
+        <v>25.43001216065617</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.97013748721346</v>
+        <v>25.43001216121636</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.90987525018357</v>
+        <v>25.43001216135867</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.21682542123447</v>
+        <v>25.43001218012178</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.84893053441575</v>
+        <v>25.43001218592976</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.90420415078298</v>
+        <v>25.43001213340468</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.8945148461346</v>
+        <v>25.43001217726024</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>39.81136276287153</v>
+        <v>25.43001219119645</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.29830532714344</v>
+        <v>25.43001214778137</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.53531024218299</v>
+        <v>25.43001218287808</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.64113292670932</v>
+        <v>25.43001219455035</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>5.848001058454059</v>
+        <v>25.43001214940709</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.34115897470383</v>
+        <v>25.43001218915096</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.38808458457439</v>
+        <v>25.43001220236876</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>14.01540260479899</v>
+        <v>25.43001216277425</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.36303094180278</v>
+        <v>25.43001219819744</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.52654515529668</v>
+        <v>25.43001220997829</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.75522358610408</v>
+        <v>25.4300122079877</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.49913813896838</v>
+        <v>25.43001222642054</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.38168415645326</v>
+        <v>25.43001223183717</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.34639816439096</v>
+        <v>25.43001217884413</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.9829519737639</v>
+        <v>25.43001222238853</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>49.6251784043492</v>
+        <v>25.43001223610512</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>37.15042079739426</v>
+        <v>25.43001218584499</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.12089189591323</v>
+        <v>25.43001218561031</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.61500580143569</v>
+        <v>25.43001220479446</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.35543091573317</v>
+        <v>25.43001221065307</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.5150705625057</v>
+        <v>25.43001215615469</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>39.33657372584177</v>
+        <v>25.43001220183916</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.3558730084637</v>
+        <v>25.43001221577306</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.09484339939711</v>
+        <v>25.43001216888832</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.98257373211908</v>
+        <v>25.43001220548276</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.16506806625743</v>
+        <v>25.43001221715638</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.61469765035005</v>
+        <v>25.43001217257531</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.8442902027853</v>
+        <v>25.43001221401523</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.97781642863623</v>
+        <v>25.43001222723455</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.13854694984079</v>
+        <v>25.4300121869026</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.14181980787446</v>
+        <v>25.43001222383746</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.38247861102828</v>
+        <v>25.43001223561967</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.63980692500958</v>
+        <v>25.43001223320016</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.56088697844879</v>
+        <v>25.4300122520353</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.54164547032566</v>
+        <v>25.43001225747856</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.61823120266055</v>
+        <v>25.43001220256041</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>49.05574058054685</v>
+        <v>25.4300122479041</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.79259201508431</v>
+        <v>25.43001226157648</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.97515962719048</v>
+        <v>25.43001219027444</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>34.98841901125234</v>
+        <v>25.4300121898433</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.44723993021494</v>
+        <v>25.43001220887314</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>49.17555586050042</v>
+        <v>25.43001221469538</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.34118134015568</v>
+        <v>25.43001216040876</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>41.21001389952876</v>
+        <v>25.43001220593901</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.66900078244445</v>
+        <v>25.43001217270814</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.58446457438914</v>
+        <v>25.43001220917866</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.71979288242434</v>
+        <v>25.4300122207465</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.52081994150483</v>
+        <v>25.43001217693871</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.78196888835499</v>
+        <v>25.43001221823829</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.86199986101362</v>
+        <v>25.43001223133783</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.06195060568504</v>
+        <v>25.43001219123165</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>41.09339044929195</v>
+        <v>25.43001222804143</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>48.28644950803161</v>
+        <v>25.43001223971688</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>45.57688006694039</v>
+        <v>25.43001223713225</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.45565088871764</v>
+        <v>25.43001225581556</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.41815737944198</v>
+        <v>25.43001226121925</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.52612108291704</v>
+        <v>25.43001220651738</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>50.99543559790545</v>
+        <v>25.43001225171374</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>59.67625370652624</v>
+        <v>25.43001226525382</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.51409489305093</v>
+        <v>25.43001217281649</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.52511966288791</v>
+        <v>25.43001217243342</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.10799930051049</v>
+        <v>25.43001219142675</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.79149598915792</v>
+        <v>25.43001219733343</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>17.81334983887639</v>
+        <v>25.43001214368426</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.66302236278582</v>
+        <v>25.43001218856244</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.61419773988374</v>
+        <v>25.43001220267329</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.32578448507261</v>
+        <v>25.43001215752773</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.25572889610441</v>
+        <v>25.4300121934357</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.38519760071942</v>
+        <v>25.4300122052492</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.3832107278716</v>
+        <v>25.43001216064236</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.6603045522839</v>
+        <v>25.43001220130492</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.73375360642994</v>
+        <v>25.43001221468264</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.04464397381916</v>
+        <v>25.43001217431869</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.09011421008378</v>
+        <v>25.43001221056069</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.27723103789651</v>
+        <v>25.43001222248408</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>43.59852358746815</v>
+        <v>25.43001221997232</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.61671155590814</v>
+        <v>25.4300122386311</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.54689640063206</v>
+        <v>25.43001224413101</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.48749212644017</v>
+        <v>25.43001218999327</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.97037965718081</v>
+        <v>25.43001223456996</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.64343869880601</v>
+        <v>25.43001224843324</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>2.579204568075998</v>
+        <v>25.43001204844727</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>14.2094530909632</v>
+        <v>25.43001207813792</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>19.11676801569745</v>
+        <v>25.43001208775322</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1.346162533200339</v>
+        <v>25.43001204841997</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>11.79812490329051</v>
+        <v>25.43001208204195</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.35704076598761</v>
+        <v>25.43001209293041</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>4.074426320934545</v>
+        <v>25.43001205616011</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>15.76893494352543</v>
+        <v>25.43001208612694</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>20.71854231676903</v>
+        <v>25.43001209583169</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.89416337240515</v>
+        <v>25.43001209959059</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.17245229419622</v>
+        <v>25.43001211446747</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>27.29805034888816</v>
+        <v>25.43001211928404</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>6.080104073181431</v>
+        <v>25.43001207693966</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>20.16495871022794</v>
+        <v>25.43001211343912</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.54672027892319</v>
+        <v>25.43001212497683</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>6.594585000350783</v>
+        <v>25.43001209029098</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.10298831919298</v>
+        <v>25.43001212358993</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.75149346121476</v>
+        <v>25.43001213471221</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0.322201671395721</v>
+        <v>25.43001208994764</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.86205179736974</v>
+        <v>25.43001212765571</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.2561629848405</v>
+        <v>25.4300121402507</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.505633329045345</v>
+        <v>25.43001210105074</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.11286395520852</v>
+        <v>25.43001213465945</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>6.289550011983437</v>
+        <v>25.43001206301691</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>18.468111664501</v>
+        <v>25.43001209398652</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.43401604493417</v>
+        <v>25.43001210360726</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>3.148890418710511</v>
+        <v>25.43001206472717</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>16.91366977029731</v>
+        <v>25.43001209979747</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.53879322536855</v>
+        <v>25.4300121106921</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>8.795386233602638</v>
+        <v>25.43001207314317</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.0423363811398</v>
+        <v>25.43001210440087</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.05091660437051</v>
+        <v>25.43001211411111</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.32642109163756</v>
+        <v>25.4300121177286</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.76141979060151</v>
+        <v>25.43001213297598</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.96561151625282</v>
+        <v>25.43001213784009</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.98492975987414</v>
+        <v>25.43001209379578</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.74654213275511</v>
+        <v>25.43001213184899</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>32.19954739274188</v>
+        <v>25.43001214336006</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>11.2792850438877</v>
+        <v>25.43001210846207</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>27.4128385187531</v>
+        <v>25.43001214317302</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>33.13903873281456</v>
+        <v>25.43001215433259</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>5.908352275908488</v>
+        <v>25.43001211002892</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>24.1556941138726</v>
+        <v>25.43001214933595</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.63758904303278</v>
+        <v>25.43001216197316</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.37892400062237</v>
+        <v>25.43001212198557</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.61605882483466</v>
+        <v>25.43001215701942</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>7.378140912913043</v>
+        <v>25.43001206661649</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.61101164206904</v>
+        <v>25.43001209747717</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>24.54807667071798</v>
+        <v>25.43001210700944</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>4.506047640932156</v>
+        <v>25.43001206881215</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>18.33248425562935</v>
+        <v>25.43001210375909</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.92487856112881</v>
+        <v>25.43001211455353</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>10.16265914454533</v>
+        <v>25.4300120772122</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.46459114329169</v>
+        <v>25.43001210835996</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>27.44404514854216</v>
+        <v>25.43001211798091</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.76666956256719</v>
+        <v>25.43001212145542</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.18789341254642</v>
+        <v>25.43001213658825</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.38604053775462</v>
+        <v>25.43001214142173</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>12.37315626890111</v>
+        <v>25.43001209751744</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>27.20654217813039</v>
+        <v>25.43001213545159</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.62123076025603</v>
+        <v>25.43001214685073</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>12.58865241883698</v>
+        <v>25.43001211229997</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.75910010746095</v>
+        <v>25.43001214688091</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.45467422424144</v>
+        <v>25.43001215795101</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>7.546245086525044</v>
+        <v>25.43001211438506</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.83548538350546</v>
+        <v>25.43001215354488</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.28264491933265</v>
+        <v>25.43001216608077</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.02483009904212</v>
+        <v>25.43001212631614</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.29936072330295</v>
+        <v>25.43001216121877</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.189361036246314</v>
+        <v>25.43001205439372</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>19.35768491084189</v>
+        <v>25.43001208475433</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>24.27694454628277</v>
+        <v>25.43001209447646</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>3.657572037875433</v>
+        <v>25.43001205562892</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.41044808193622</v>
+        <v>25.43001209000959</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>22.98276500726862</v>
+        <v>25.43001210101902</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>9.438105361595465</v>
+        <v>25.43001206355178</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>21.67435806879518</v>
+        <v>25.43001209419482</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.6359023299603</v>
+        <v>25.43001210400738</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.88511649489564</v>
+        <v>25.43001210751573</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.36796445310508</v>
+        <v>25.43001212259062</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.52488565237455</v>
+        <v>25.4300121274858</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>11.48154659280367</v>
+        <v>25.43001208416259</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.21662992523471</v>
+        <v>25.43001212152966</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.61840504416367</v>
+        <v>25.43001213318088</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>12.05134489172155</v>
+        <v>25.43001209811501</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.21142298309748</v>
+        <v>25.43001213215476</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.88390509229376</v>
+        <v>25.43001214342848</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>6.234189475490851</v>
+        <v>25.4300120991354</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>24.51132417793794</v>
+        <v>25.43001213768235</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.93232587967791</v>
+        <v>25.43001215044883</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>13.84956346312964</v>
+        <v>25.43001211049001</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.1131075471289</v>
+        <v>25.4300121448464</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.80583433232454</v>
+        <v>25.43001214588519</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.01257044278443</v>
+        <v>25.43001214677149</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>33.68629599239692</v>
+        <v>25.43001216432031</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>37.7161474808191</v>
+        <v>25.43001216978832</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>10.87466397728864</v>
+        <v>25.43001212060032</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>30.34004115019499</v>
+        <v>25.43001216201631</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>37.32811021512771</v>
+        <v>25.430012175112</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>11.74502393974281</v>
+        <v>25.43001213685166</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>27.85267949881786</v>
+        <v>25.43001217013711</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>34.17287493687213</v>
+        <v>25.43001218100358</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>7.393815366060952</v>
+        <v>25.43001213766011</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>25.60908497007524</v>
+        <v>25.43001217535289</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>32.76702211807613</v>
+        <v>25.43001218765819</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>15.44505341745946</v>
+        <v>25.43001215027295</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>31.65541770330448</v>
+        <v>25.43001218386803</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>38.02743127521465</v>
+        <v>25.43001219483558</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>35.46692929748988</v>
+        <v>25.43001219364366</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>44.56902506158245</v>
+        <v>25.43001221090897</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>48.83557688842819</v>
+        <v>25.43001221599327</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.92246417926417</v>
+        <v>25.43001216624628</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>40.1209231956995</v>
+        <v>25.43001220749792</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>47.75417442374108</v>
+        <v>25.43001222030422</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>35.38720702905566</v>
+        <v>25.4300121682828</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>31.62119320571334</v>
+        <v>25.43001216882141</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.47010690949703</v>
+        <v>25.43001218675919</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>44.59658454458484</v>
+        <v>25.43001219228156</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>16.920461393658</v>
+        <v>25.43001214125132</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>37.15984920935223</v>
+        <v>25.43001218437344</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>44.24142420522103</v>
+        <v>25.43001219747283</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>17.08637584804547</v>
+        <v>25.43001215609814</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>13.66293970580379</v>
+        <v>25.43001215882818</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>32.56454944726047</v>
+        <v>25.43001219810838</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>39.8021326371052</v>
+        <v>25.43001221041834</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>22.03508274761668</v>
+        <v>25.43001217229515</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>38.85650548072709</v>
+        <v>25.43001220730507</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>45.29946534914649</v>
+        <v>25.43001221827678</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>42.76616934690434</v>
+        <v>25.43001221669806</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>52.03346949571677</v>
+        <v>25.43001223433572</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>56.38651054982294</v>
+        <v>25.43001223945</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>26.6454860107922</v>
+        <v>25.43001218790312</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>47.59171713848998</v>
+        <v>25.43001223083511</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>55.30979931944237</v>
+        <v>25.43001224360368</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>37.03959672146069</v>
+        <v>25.43001217239185</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>33.31498176978037</v>
+        <v>25.43001217274859</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>42.13120857295019</v>
+        <v>25.43001219053991</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>46.24800544330728</v>
+        <v>25.43001219602916</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>18.57594410181376</v>
+        <v>25.43001214520022</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.8600850934364</v>
+        <v>25.43001218816872</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>45.90361378383705</v>
+        <v>25.4300122011553</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>18.50782769565227</v>
+        <v>25.43001215963609</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>35.2471278436107</v>
+        <v>25.43001219419956</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>41.59697818835861</v>
+        <v>25.43001220497231</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>15.40221661363731</v>
+        <v>25.4300121628829</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>34.33244812119199</v>
+        <v>25.43001220202293</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>41.52372625710348</v>
+        <v>25.4300122142221</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>23.78215763049647</v>
+        <v>25.43001217630405</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.62913457322149</v>
+        <v>25.43001221118904</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.03089360660935</v>
+        <v>25.43001222206201</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>44.52985720331073</v>
+        <v>25.43001222033229</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>53.75766950751169</v>
+        <v>25.43001223782592</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>58.09511606398259</v>
+        <v>25.43001224290403</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>28.38285352629944</v>
+        <v>25.43001219156295</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>49.35886954980695</v>
+        <v>25.43001223434831</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>57.0281604427316</v>
+        <v>25.43001224699354</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>35.83001561417202</v>
+        <v>25.430012156225</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>32.09085347070008</v>
+        <v>25.43001215664877</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>41.02191133767134</v>
+        <v>25.43001217440719</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>45.09691733670304</v>
+        <v>25.43001217996775</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.28938938285845</v>
+        <v>25.43001212973479</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>37.5531968108726</v>
+        <v>25.4300121721001</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>44.57286333965429</v>
+        <v>25.43001218535644</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>17.38261930844898</v>
+        <v>25.43001214556713</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>34.13454931104641</v>
+        <v>25.43001217961043</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>40.47812187528658</v>
+        <v>25.43001219060436</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>13.52247477538143</v>
+        <v>25.43001214777567</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>32.46657645768168</v>
+        <v>25.43001218632664</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>39.65079197676302</v>
+        <v>25.43001219877628</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>22.03177186312505</v>
+        <v>25.43001216064537</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>38.8909390570736</v>
+        <v>25.43001219500535</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>45.2863373116882</v>
+        <v>25.43001220610155</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>42.80103914200388</v>
+        <v>25.43001220445369</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>52.15859490433384</v>
+        <v>25.43001222192541</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>56.46705225328317</v>
+        <v>25.43001222708741</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>26.59475449432229</v>
+        <v>25.43001217627388</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>47.58107623802889</v>
+        <v>25.43001221848935</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>55.24244112433398</v>
+        <v>25.43001223142679</v>
       </c>
     </row>
   </sheetData>
